--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_3ПКС-420\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAFF268-06B9-473E-BE4B-F52DFDA0F5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9498FB61-556C-454B-8ACD-E75FBAD8AE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,12 +146,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -181,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -194,6 +200,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -504,7 +513,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="D22" activeCellId="4" sqref="C6 D6 C11:D11 C20:D21 D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -599,10 +608,10 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
         <v>5</v>
       </c>
       <c r="E6" s="2">
@@ -696,10 +705,10 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
         <v>5</v>
       </c>
       <c r="E11" s="2"/>
@@ -853,10 +862,10 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="6">
+        <v>5</v>
+      </c>
+      <c r="D20" s="6">
         <v>5</v>
       </c>
       <c r="E20" s="2">
@@ -878,10 +887,10 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="6">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6">
         <v>5</v>
       </c>
       <c r="E21" s="2">
@@ -904,7 +913,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2">
+      <c r="D22" s="6">
         <v>5</v>
       </c>
       <c r="E22" s="2">

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\3ПКС-420\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9498FB61-556C-454B-8ACD-E75FBAD8AE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09767D5-8683-405F-87CC-1C3F4A9252E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Афонин Георгий</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Лаб_12</t>
+  </si>
+  <si>
+    <t>Лаб_13</t>
+  </si>
+  <si>
+    <t>Лаб_14</t>
+  </si>
+  <si>
+    <t>Лаб_4</t>
   </si>
 </sst>
 </file>
@@ -198,11 +207,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -513,7 +522,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D22" activeCellId="4" sqref="C6 D6 C11:D11 C20:D21 D22"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -524,58 +533,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-    </row>
-    <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+    </row>
+    <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -583,8 +600,9 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -592,7 +610,6 @@
         <v>0</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -600,35 +617,45 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
         <v>5</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -636,7 +663,6 @@
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -644,8 +670,9 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -653,18 +680,18 @@
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -672,16 +699,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -689,7 +720,6 @@
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -697,29 +727,30 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -727,7 +758,6 @@
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -735,8 +765,9 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -744,7 +775,6 @@
         <v>8</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -752,8 +782,9 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -761,7 +792,6 @@
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -769,8 +799,9 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -778,7 +809,6 @@
         <v>10</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -786,8 +816,9 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -795,7 +826,6 @@
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -803,8 +833,9 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -812,7 +843,6 @@
         <v>12</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -820,25 +850,30 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -846,7 +881,6 @@
         <v>14</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -854,58 +888,68 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="6">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
         <v>5</v>
       </c>
       <c r="F20" s="2">
         <v>5</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="6">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
         <v>5</v>
       </c>
       <c r="F21" s="2">
         <v>5</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L21" s="2">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -913,20 +957,20 @@
         <v>17</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="6">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2"/>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -934,7 +978,6 @@
         <v>18</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -942,8 +985,9 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -951,7 +995,6 @@
         <v>19</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -959,8 +1002,9 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -968,18 +1012,18 @@
         <v>20</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2">
-        <v>5</v>
-      </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2">
+        <v>5</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -987,7 +1031,6 @@
         <v>21</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -995,8 +1038,9 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1004,18 +1048,18 @@
         <v>22</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1023,7 +1067,6 @@
         <v>23</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1031,8 +1074,9 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09767D5-8683-405F-87CC-1C3F4A9252E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ED54E2-DA5F-42D5-B847-72C8F7D5E36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -705,9 +705,15 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -720,13 +726,28 @@
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ED54E2-DA5F-42D5-B847-72C8F7D5E36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19369FB-C154-4895-8C38-3AFD9DBC0CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,10 +519,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -715,7 +715,9 @@
         <v>5</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1052,8 +1054,12 @@
         <v>21</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19369FB-C154-4895-8C38-3AFD9DBC0CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DCB73C-E5C0-4CB6-A302-671728AF6606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,10 +519,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1017,15 +1017,31 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="2">
+        <v>5</v>
+      </c>
+      <c r="L24" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1036,15 +1052,24 @@
       </c>
       <c r="C25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2">
         <v>5</v>
       </c>
       <c r="L25" s="2"/>
+      <c r="M25">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1053,7 +1078,9 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
       <c r="E26" s="2">
         <v>5</v>
       </c>
@@ -1061,8 +1088,12 @@
         <v>5</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1075,15 +1106,25 @@
         <v>22</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2">
+        <v>5</v>
+      </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="2">
+        <v>5</v>
+      </c>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DCB73C-E5C0-4CB6-A302-671728AF6606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F225580-8341-4E94-9C7C-12533A0CC681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -212,6 +212,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,10 +520,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="H27" activeCellId="7" sqref="H6 H9 H10 H21 H24 H25 H26 H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -629,19 +630,19 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>5</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
         <v>5</v>
       </c>
       <c r="I6" s="2">
@@ -699,16 +700,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
         <v>5</v>
       </c>
       <c r="I9" s="2">
@@ -728,19 +729,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="D10" s="7">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4">
         <v>5</v>
       </c>
       <c r="I10" s="2">
@@ -885,7 +886,7 @@
       <c r="C18" s="2">
         <v>5</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>5</v>
       </c>
       <c r="F18" s="2"/>
@@ -926,10 +927,10 @@
       <c r="E20" s="4">
         <v>5</v>
       </c>
-      <c r="F20" s="2">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
         <v>5</v>
       </c>
       <c r="H20" s="2"/>
@@ -951,13 +952,13 @@
       <c r="E21" s="4">
         <v>5</v>
       </c>
-      <c r="F21" s="2">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4">
         <v>5</v>
       </c>
       <c r="I21" s="2">
@@ -983,7 +984,7 @@
       <c r="E22" s="4">
         <v>5</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>5</v>
       </c>
       <c r="G22" s="2"/>
@@ -1020,14 +1021,14 @@
       <c r="C24" s="2">
         <v>5</v>
       </c>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4">
         <v>5</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="2">
+      <c r="H24" s="4">
         <v>5</v>
       </c>
       <c r="I24" s="2">
@@ -1052,11 +1053,11 @@
       </c>
       <c r="C25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <v>5</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="2">
+      <c r="H25" s="4">
         <v>5</v>
       </c>
       <c r="I25" s="2">
@@ -1081,14 +1082,14 @@
       <c r="C26" s="2">
         <v>5</v>
       </c>
-      <c r="E26" s="2">
-        <v>5</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4">
         <v>5</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="2">
+      <c r="H26" s="4">
         <v>5</v>
       </c>
       <c r="I26" s="2">
@@ -1106,16 +1107,16 @@
         <v>22</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="E27" s="4">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4">
         <v>5</v>
       </c>
       <c r="I27" s="2">

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-420\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F225580-8341-4E94-9C7C-12533A0CC681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750C499B-C6E0-4A0C-9136-11D4883016D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -192,11 +192,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -210,9 +221,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -520,10 +534,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H27" activeCellId="7" sqref="H6 H9 H10 H21 H24 H25 H26 H27"/>
+      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -534,27 +548,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -630,7 +644,7 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>5</v>
       </c>
       <c r="E6" s="4">
@@ -720,6 +734,9 @@
         <v>5</v>
       </c>
       <c r="L9" s="2"/>
+      <c r="M9" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -729,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>5</v>
       </c>
       <c r="E10" s="4">
@@ -1126,7 +1143,12 @@
       <c r="K27" s="2">
         <v>5</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2">
+        <v>5</v>
+      </c>
+      <c r="M27" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750C499B-C6E0-4A0C-9136-11D4883016D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B985AF02-906C-4F93-831F-9860D2DCBED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,10 +534,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -662,7 +662,9 @@
       <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
       <c r="K6" s="2">
         <v>5</v>
       </c>
@@ -729,7 +731,9 @@
       <c r="I9" s="2">
         <v>5</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
       <c r="K9" s="2">
         <v>5</v>
       </c>
@@ -816,13 +820,23 @@
         <v>8</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -906,12 +920,22 @@
       <c r="E18" s="4">
         <v>5</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2">
+        <v>5</v>
+      </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1112,8 +1136,12 @@
       <c r="I26" s="2">
         <v>5</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="J26" s="2">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2">
+        <v>5</v>
+      </c>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1139,7 +1167,9 @@
       <c r="I27" s="2">
         <v>5</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2">
+        <v>5</v>
+      </c>
       <c r="K27" s="2">
         <v>5</v>
       </c>

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B985AF02-906C-4F93-831F-9860D2DCBED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BDB033-2097-474B-A3A3-9AEBE32934F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,7 +537,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,9 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -897,7 +899,9 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BDB033-2097-474B-A3A3-9AEBE32934F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98620D3B-4B1F-4FCB-AF17-9DAEF075A73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,7 +537,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -686,10 +686,18 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -703,7 +711,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2">
         <v>5</v>
@@ -792,10 +802,19 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
       <c r="L11" s="2"/>
+      <c r="M11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -809,10 +828,17 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -887,10 +913,19 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>5</v>
+      </c>
       <c r="L16" s="2"/>
+      <c r="M16">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -906,10 +941,16 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="K17" s="2">
+        <v>5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -941,6 +982,9 @@
         <v>5</v>
       </c>
       <c r="L18" s="2"/>
+      <c r="M18" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98620D3B-4B1F-4FCB-AF17-9DAEF075A73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7441B31-5258-492F-8D0B-DC0CFC0DA307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Афонин Георгий</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>Лаб_4</t>
+  </si>
+  <si>
+    <t>Лаб_3</t>
+  </si>
+  <si>
+    <t>Лаб_2</t>
+  </si>
+  <si>
+    <t>Лаб_1</t>
   </si>
 </sst>
 </file>
@@ -537,7 +546,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -576,46 +585,55 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -625,14 +643,14 @@
         <v>0</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -644,31 +662,31 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="5">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>5</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
       </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4">
         <v>5</v>
       </c>
       <c r="L6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2">
         <v>5</v>
       </c>
     </row>
@@ -682,20 +700,26 @@
       <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
       <c r="I7" s="2">
         <v>5</v>
       </c>
-      <c r="J7" s="2">
-        <v>5</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2">
         <v>5</v>
       </c>
       <c r="L7" s="2">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2">
         <v>5</v>
       </c>
     </row>
@@ -707,18 +731,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2">
-        <v>5</v>
-      </c>
-      <c r="J8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
       <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <v>5</v>
+      </c>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -728,29 +756,29 @@
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="E9" s="4">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4">
-        <v>5</v>
-      </c>
       <c r="H9" s="4">
         <v>5</v>
       </c>
-      <c r="I9" s="2">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="6">
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="6">
         <v>5</v>
       </c>
     </row>
@@ -762,29 +790,29 @@
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>5</v>
       </c>
       <c r="H10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="2">
-        <v>5</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <v>5</v>
-      </c>
-      <c r="L10" s="2"/>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
+        <v>5</v>
+      </c>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -796,23 +824,27 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="4">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
       <c r="I11" s="2">
         <v>5</v>
       </c>
-      <c r="J11" s="2">
-        <v>5</v>
-      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2">
         <v>5</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11">
+      <c r="L11" s="2">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11">
         <v>5</v>
       </c>
     </row>
@@ -824,19 +856,23 @@
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>5</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
       <c r="L12" s="2">
         <v>5</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
+        <v>5</v>
+      </c>
+      <c r="P12">
         <v>5</v>
       </c>
     </row>
@@ -848,24 +884,24 @@
         <v>8</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
       <c r="H13" s="2">
         <v>5</v>
       </c>
-      <c r="I13" s="2">
-        <v>5</v>
-      </c>
-      <c r="J13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
       <c r="K13" s="2">
         <v>5</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2">
+        <v>5</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
+        <v>5</v>
+      </c>
+      <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -875,14 +911,14 @@
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -892,14 +928,14 @@
         <v>10</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -909,10 +945,21 @@
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
       <c r="I16" s="2">
         <v>5</v>
       </c>
@@ -922,12 +969,21 @@
       <c r="K16" s="2">
         <v>5</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="2">
+        <v>5</v>
+      </c>
+      <c r="M16" s="2">
+        <v>5</v>
+      </c>
+      <c r="N16" s="2">
+        <v>5</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -937,13 +993,10 @@
       <c r="C17" s="2">
         <v>5</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
-        <v>5</v>
-      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2">
         <v>5</v>
@@ -951,8 +1004,15 @@
       <c r="L17" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2">
+        <v>5</v>
+      </c>
+      <c r="O17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -962,31 +1022,31 @@
       <c r="C18" s="2">
         <v>5</v>
       </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <v>5</v>
       </c>
       <c r="I18" s="2">
         <v>5</v>
       </c>
-      <c r="J18" s="2">
-        <v>5</v>
-      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="2">
         <v>5</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="2">
+        <v>5</v>
+      </c>
+      <c r="M18" s="2">
+        <v>5</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -994,16 +1054,16 @@
         <v>14</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1013,22 +1073,22 @@
       <c r="C20" s="4">
         <v>5</v>
       </c>
-      <c r="E20" s="4">
-        <v>5</v>
-      </c>
-      <c r="F20" s="4">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4">
+        <v>5</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1038,31 +1098,31 @@
       <c r="C21" s="4">
         <v>5</v>
       </c>
-      <c r="E21" s="4">
-        <v>5</v>
-      </c>
-      <c r="F21" s="4">
-        <v>5</v>
-      </c>
-      <c r="G21" s="4">
-        <v>5</v>
-      </c>
       <c r="H21" s="4">
         <v>5</v>
       </c>
-      <c r="I21" s="2">
-        <v>5</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
       <c r="L21" s="2">
         <v>5</v>
       </c>
-      <c r="M21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1070,20 +1130,20 @@
         <v>17</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="E22" s="4">
-        <v>5</v>
-      </c>
-      <c r="F22" s="4">
-        <v>5</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="4">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4">
+        <v>5</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1091,16 +1151,16 @@
         <v>18</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1110,30 +1170,30 @@
       <c r="C24" s="2">
         <v>5</v>
       </c>
-      <c r="E24" s="4">
-        <v>5</v>
-      </c>
-      <c r="F24" s="4">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2"/>
       <c r="H24" s="4">
         <v>5</v>
       </c>
-      <c r="I24" s="2">
-        <v>5</v>
-      </c>
-      <c r="J24" s="2">
-        <v>5</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="I24" s="4">
+        <v>5</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="4">
         <v>5</v>
       </c>
       <c r="L24" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="2">
+        <v>5</v>
+      </c>
+      <c r="N24" s="2">
+        <v>5</v>
+      </c>
+      <c r="O24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1141,27 +1201,27 @@
         <v>20</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4">
-        <v>5</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="4">
-        <v>5</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="H25" s="2"/>
+      <c r="I25" s="4">
         <v>5</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="2">
-        <v>5</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="M25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="4">
+        <v>5</v>
+      </c>
+      <c r="L25" s="2">
+        <v>5</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2">
+        <v>5</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1171,28 +1231,28 @@
       <c r="C26" s="2">
         <v>5</v>
       </c>
-      <c r="E26" s="4">
-        <v>5</v>
-      </c>
-      <c r="F26" s="4">
-        <v>5</v>
-      </c>
-      <c r="G26" s="2"/>
       <c r="H26" s="4">
         <v>5</v>
       </c>
-      <c r="I26" s="2">
-        <v>5</v>
-      </c>
-      <c r="J26" s="2">
-        <v>5</v>
-      </c>
-      <c r="K26" s="2">
-        <v>5</v>
-      </c>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="4">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26" s="2">
+        <v>5</v>
+      </c>
+      <c r="M26" s="2">
+        <v>5</v>
+      </c>
+      <c r="N26" s="2">
+        <v>5</v>
+      </c>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1200,35 +1260,35 @@
         <v>22</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="E27" s="4">
-        <v>5</v>
-      </c>
-      <c r="F27" s="4">
-        <v>5</v>
-      </c>
-      <c r="G27" s="4">
-        <v>5</v>
-      </c>
       <c r="H27" s="4">
         <v>5</v>
       </c>
-      <c r="I27" s="2">
-        <v>5</v>
-      </c>
-      <c r="J27" s="2">
-        <v>5</v>
-      </c>
-      <c r="K27" s="2">
+      <c r="I27" s="4">
+        <v>5</v>
+      </c>
+      <c r="J27" s="4">
+        <v>5</v>
+      </c>
+      <c r="K27" s="4">
         <v>5</v>
       </c>
       <c r="L27" s="2">
         <v>5</v>
       </c>
-      <c r="M27" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M27" s="2">
+        <v>5</v>
+      </c>
+      <c r="N27" s="2">
+        <v>5</v>
+      </c>
+      <c r="O27" s="2">
+        <v>5</v>
+      </c>
+      <c r="P27" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1236,25 +1296,25 @@
         <v>23</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7441B31-5258-492F-8D0B-DC0CFC0DA307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3464D069-3D1A-4476-B339-43881FDC8B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,9 @@
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
         <v>5</v>
@@ -747,6 +749,9 @@
         <v>5</v>
       </c>
       <c r="O8" s="2"/>
+      <c r="P8" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -928,14 +933,33 @@
         <v>10</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5</v>
+      </c>
+      <c r="O15" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1295,14 +1319,22 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2">
+        <v>5</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" s="2">
+        <v>5</v>
+      </c>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25">

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3464D069-3D1A-4476-B339-43881FDC8B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D703FB-D859-472D-9779-FF06A22B5FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,19 @@
     <sheet name="Safonova N. N." sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -546,7 +559,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -651,6 +664,10 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
+      <c r="R5">
+        <f>SUM(C5:P5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -689,6 +706,10 @@
       <c r="O6" s="2">
         <v>5</v>
       </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R28" si="0">SUM(C6:P6)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -722,6 +743,10 @@
       <c r="O7" s="2">
         <v>5</v>
       </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -752,6 +777,10 @@
       <c r="P8" s="6">
         <v>5</v>
       </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -785,6 +814,10 @@
       <c r="O9" s="2"/>
       <c r="P9" s="6">
         <v>5</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -818,6 +851,10 @@
         <v>5</v>
       </c>
       <c r="O10" s="2"/>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -852,6 +889,10 @@
       <c r="P11">
         <v>5</v>
       </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -880,6 +921,10 @@
       <c r="P12">
         <v>5</v>
       </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -907,6 +952,10 @@
         <v>5</v>
       </c>
       <c r="O13" s="2"/>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -924,6 +973,10 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -960,6 +1013,10 @@
       <c r="O15" s="2">
         <v>5</v>
       </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1006,8 +1063,12 @@
       <c r="P16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1035,8 +1096,12 @@
       <c r="O17" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1069,8 +1134,12 @@
       <c r="P18" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1086,8 +1155,12 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1111,8 +1184,12 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1145,8 +1222,12 @@
       <c r="P21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1166,8 +1247,12 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1183,8 +1268,12 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1216,8 +1305,12 @@
       <c r="O24" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1244,8 +1337,12 @@
       <c r="P25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1275,8 +1372,12 @@
         <v>5</v>
       </c>
       <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1311,8 +1412,12 @@
       <c r="P27" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1336,8 +1441,12 @@
         <v>5</v>
       </c>
       <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1353,6 +1462,18 @@
   <mergeCells count="1">
     <mergeCell ref="C1:W1"/>
   </mergeCells>
+  <conditionalFormatting sqref="R5:R28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D703FB-D859-472D-9779-FF06A22B5FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD03C96-0945-49E6-AD59-F7252043ADB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -225,11 +225,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -245,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -559,7 +571,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -570,27 +582,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -656,17 +668,30 @@
         <v>0</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
       <c r="O5" s="2"/>
+      <c r="P5" s="6">
+        <v>5</v>
+      </c>
       <c r="R5">
         <f>SUM(C5:P5)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -846,14 +871,19 @@
       <c r="L10" s="2">
         <v>5</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2">
+        <v>5</v>
+      </c>
       <c r="N10" s="2">
         <v>5</v>
       </c>
       <c r="O10" s="2"/>
+      <c r="P10" s="7">
+        <v>5</v>
+      </c>
       <c r="R10">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1059,13 +1089,15 @@
       <c r="N16" s="2">
         <v>5</v>
       </c>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2">
+        <v>5</v>
+      </c>
       <c r="P16">
         <v>5</v>
       </c>
       <c r="R16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1117,7 +1149,9 @@
       <c r="I18" s="2">
         <v>5</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
       <c r="K18" s="2">
         <v>5</v>
       </c>
@@ -1130,13 +1164,15 @@
       <c r="N18" s="2">
         <v>5</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2">
+        <v>5</v>
+      </c>
       <c r="P18" s="6">
         <v>5</v>
       </c>
       <c r="R18">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1146,18 +1182,35 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="K19" s="2">
+        <v>5</v>
+      </c>
+      <c r="L19" s="2">
+        <v>5</v>
+      </c>
+      <c r="M19" s="2">
+        <v>5</v>
+      </c>
+      <c r="N19" s="2">
+        <v>5</v>
+      </c>
       <c r="O19" s="2"/>
+      <c r="P19" s="6">
+        <v>5</v>
+      </c>
       <c r="R19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD03C96-0945-49E6-AD59-F7252043ADB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56A0854-C571-4856-92E3-7629E750C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Афонин Георгий</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Лаб_1</t>
+  </si>
+  <si>
+    <t>ОЧЕНЬ ХОЧЕТ 5</t>
   </si>
 </sst>
 </file>
@@ -568,10 +571,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -885,6 +888,9 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
+      <c r="U10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-420\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56A0854-C571-4856-92E3-7629E750C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0181DA83-3318-44CF-A789-5B0DF6419358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Афонин Георгий</t>
   </si>
@@ -568,13 +568,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
     <col min="3" max="11" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C1" s="8"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -607,8 +607,8 @@
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
     </row>
-    <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:26" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
@@ -652,7 +652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -663,7 +663,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -692,12 +692,8 @@
       <c r="P5" s="6">
         <v>5</v>
       </c>
-      <c r="R5">
-        <f>SUM(C5:P5)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -734,12 +730,8 @@
       <c r="O6" s="2">
         <v>5</v>
       </c>
-      <c r="R6">
-        <f t="shared" ref="R6:R28" si="0">SUM(C6:P6)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -771,12 +763,8 @@
       <c r="O7" s="2">
         <v>5</v>
       </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -805,19 +793,17 @@
       <c r="P8" s="6">
         <v>5</v>
       </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
       <c r="H9" s="4">
         <v>5</v>
       </c>
@@ -839,16 +825,14 @@
       <c r="N9" s="2">
         <v>5</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2">
+        <v>5</v>
+      </c>
       <c r="P9" s="6">
         <v>5</v>
       </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -884,15 +868,38 @@
       <c r="P10" s="7">
         <v>5</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="Q10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" t="s">
+        <v>38</v>
       </c>
       <c r="U10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -925,12 +932,8 @@
       <c r="P11">
         <v>5</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -938,31 +941,35 @@
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
       <c r="I12" s="2">
         <v>5</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
       <c r="K12" s="2">
         <v>5</v>
       </c>
       <c r="L12" s="2">
         <v>5</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5</v>
+      </c>
       <c r="O12" s="2">
         <v>5</v>
       </c>
       <c r="P12">
         <v>5</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -988,33 +995,42 @@
         <v>5</v>
       </c>
       <c r="O13" s="2"/>
-      <c r="R13">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+      <c r="N14" s="2">
+        <v>5</v>
+      </c>
       <c r="O14" s="2"/>
-      <c r="R14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P14" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1049,12 +1065,8 @@
       <c r="O15" s="2">
         <v>5</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1101,12 +1113,8 @@
       <c r="P16">
         <v>5</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1134,12 +1142,8 @@
       <c r="O17" s="2">
         <v>5</v>
       </c>
-      <c r="R17">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1176,12 +1180,8 @@
       <c r="P18" s="6">
         <v>5</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1214,12 +1214,8 @@
       <c r="P19" s="6">
         <v>5</v>
       </c>
-      <c r="R19">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1243,12 +1239,8 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="R20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1281,12 +1273,8 @@
       <c r="P21">
         <v>5</v>
       </c>
-      <c r="R21">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1300,18 +1288,25 @@
       <c r="I22" s="4">
         <v>5</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>5</v>
+      </c>
+      <c r="L22" s="2">
+        <v>5</v>
+      </c>
+      <c r="M22" s="2">
+        <v>5</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="R22">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1327,12 +1322,8 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="R23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1364,12 +1355,8 @@
       <c r="O24" s="2">
         <v>5</v>
       </c>
-      <c r="R24">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1377,31 +1364,38 @@
         <v>20</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
       <c r="I25" s="4">
         <v>5</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <v>5</v>
+      </c>
       <c r="K25" s="4">
         <v>5</v>
       </c>
       <c r="L25" s="2">
         <v>5</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" s="2">
+        <v>5</v>
+      </c>
       <c r="N25" s="2">
         <v>5</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" s="2">
+        <v>5</v>
+      </c>
       <c r="P25">
         <v>5</v>
       </c>
-      <c r="R25">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1431,12 +1425,8 @@
         <v>5</v>
       </c>
       <c r="O26" s="2"/>
-      <c r="R26">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1471,12 +1461,8 @@
       <c r="P27" s="6">
         <v>5</v>
       </c>
-      <c r="R27">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1490,22 +1476,25 @@
         <v>5</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2">
+        <v>5</v>
+      </c>
       <c r="K28" s="2">
         <v>5</v>
       </c>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="M28" s="2">
+        <v>5</v>
+      </c>
       <c r="N28" s="2">
         <v>5</v>
       </c>
       <c r="O28" s="2"/>
-      <c r="R28">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1521,7 +1510,7 @@
   <mergeCells count="1">
     <mergeCell ref="C1:W1"/>
   </mergeCells>
-  <conditionalFormatting sqref="R5:R28">
+  <conditionalFormatting sqref="R5:R9 R11:R28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0181DA83-3318-44CF-A789-5B0DF6419358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE76EE8D-AE1A-4678-AC0E-D5E2A73D93D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1314,9 @@
         <v>18</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE76EE8D-AE1A-4678-AC0E-D5E2A73D93D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E16F3-F703-4B0D-BF6D-9A01C6C54A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1314,16 +1314,36 @@
         <v>18</v>
       </c>
       <c r="C23" s="2"/>
+      <c r="G23">
+        <v>5</v>
+      </c>
       <c r="H23" s="2">
         <v>5</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="I23" s="2">
+        <v>5</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2">
+        <v>5</v>
+      </c>
+      <c r="M23" s="2">
+        <v>5</v>
+      </c>
+      <c r="N23" s="2">
+        <v>5</v>
+      </c>
+      <c r="O23" s="2">
+        <v>5</v>
+      </c>
+      <c r="P23" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E16F3-F703-4B0D-BF6D-9A01C6C54A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9654D7-D29E-44F0-880F-587496F71403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Афонин Георгий</t>
   </si>
@@ -256,10 +256,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -570,11 +570,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -671,26 +671,30 @@
         <v>0</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>5</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2">
-        <v>5</v>
-      </c>
-      <c r="M5" s="2">
-        <v>5</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4">
         <v>5</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="6">
         <v>5</v>
+      </c>
+      <c r="R5">
+        <f>SUM(C5:P5)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -718,17 +722,21 @@
       <c r="K6" s="4">
         <v>5</v>
       </c>
-      <c r="L6" s="2">
-        <v>5</v>
-      </c>
-      <c r="M6" s="2">
-        <v>5</v>
-      </c>
-      <c r="N6" s="2">
-        <v>5</v>
-      </c>
-      <c r="O6" s="2">
-        <v>5</v>
+      <c r="L6" s="4">
+        <v>5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>5</v>
+      </c>
+      <c r="O6" s="4">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R28" si="0">SUM(C6:P6)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -741,27 +749,31 @@
       <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
         <v>5</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2">
-        <v>5</v>
-      </c>
-      <c r="L7" s="2">
-        <v>5</v>
-      </c>
-      <c r="M7" s="2">
-        <v>5</v>
-      </c>
-      <c r="N7" s="2">
-        <v>5</v>
-      </c>
-      <c r="O7" s="2">
-        <v>5</v>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4">
+        <v>5</v>
+      </c>
+      <c r="N7" s="4">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -772,27 +784,31 @@
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>5</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2">
-        <v>5</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4">
         <v>5</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="2">
+      <c r="N8" s="4">
         <v>5</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
         <v>5</v>
       </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -816,20 +832,24 @@
       <c r="K9" s="4">
         <v>5</v>
       </c>
-      <c r="L9" s="2">
-        <v>5</v>
-      </c>
-      <c r="M9" s="2">
-        <v>5</v>
-      </c>
-      <c r="N9" s="2">
-        <v>5</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5</v>
+      </c>
+      <c r="N9" s="4">
+        <v>5</v>
+      </c>
+      <c r="O9" s="4">
         <v>5</v>
       </c>
       <c r="P9" s="6">
         <v>5</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -855,13 +875,13 @@
       <c r="K10" s="4">
         <v>5</v>
       </c>
-      <c r="L10" s="2">
-        <v>5</v>
-      </c>
-      <c r="M10" s="2">
-        <v>5</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="L10" s="4">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>5</v>
+      </c>
+      <c r="N10" s="4">
         <v>5</v>
       </c>
       <c r="O10" s="2"/>
@@ -871,8 +891,9 @@
       <c r="Q10" t="s">
         <v>38</v>
       </c>
-      <c r="R10" t="s">
-        <v>38</v>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="S10" t="s">
         <v>38</v>
@@ -912,25 +933,29 @@
       <c r="H11" s="4">
         <v>5</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>5</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2">
-        <v>5</v>
-      </c>
-      <c r="L11" s="2">
-        <v>5</v>
-      </c>
-      <c r="M11" s="2">
-        <v>5</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="K11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>5</v>
+      </c>
+      <c r="M11" s="4">
+        <v>5</v>
+      </c>
+      <c r="N11" s="4">
         <v>5</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="P11">
-        <v>5</v>
+      <c r="P11" s="5">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -941,32 +966,36 @@
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>5</v>
-      </c>
-      <c r="J12" s="2">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2">
-        <v>5</v>
-      </c>
-      <c r="L12" s="2">
-        <v>5</v>
-      </c>
-      <c r="M12" s="2">
-        <v>5</v>
-      </c>
-      <c r="N12" s="2">
-        <v>5</v>
-      </c>
-      <c r="O12" s="2">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5</v>
+      </c>
+      <c r="M12" s="4">
+        <v>5</v>
+      </c>
+      <c r="N12" s="4">
+        <v>5</v>
+      </c>
+      <c r="O12" s="4">
+        <v>5</v>
+      </c>
+      <c r="P12" s="5">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -977,24 +1006,28 @@
         <v>8</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>5</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2">
-        <v>5</v>
-      </c>
-      <c r="K13" s="2">
-        <v>5</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="J13" s="4">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
         <v>5</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2">
+      <c r="N13" s="4">
         <v>5</v>
       </c>
       <c r="O13" s="2"/>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1006,28 +1039,32 @@
       <c r="C14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>5</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2">
-        <v>5</v>
-      </c>
-      <c r="K14" s="2">
-        <v>5</v>
-      </c>
-      <c r="L14" s="2">
-        <v>5</v>
-      </c>
-      <c r="M14" s="2">
-        <v>5</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
+        <v>5</v>
+      </c>
+      <c r="M14" s="4">
+        <v>5</v>
+      </c>
+      <c r="N14" s="4">
         <v>5</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
         <v>5</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1041,29 +1078,33 @@
       <c r="G15">
         <v>5</v>
       </c>
-      <c r="H15" s="2">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2">
-        <v>5</v>
-      </c>
-      <c r="J15" s="2">
-        <v>5</v>
-      </c>
-      <c r="K15" s="2">
-        <v>5</v>
-      </c>
-      <c r="L15" s="2">
-        <v>5</v>
-      </c>
-      <c r="M15" s="2">
-        <v>5</v>
-      </c>
-      <c r="N15" s="2">
-        <v>5</v>
-      </c>
-      <c r="O15" s="2">
-        <v>5</v>
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>5</v>
+      </c>
+      <c r="M15" s="4">
+        <v>5</v>
+      </c>
+      <c r="N15" s="4">
+        <v>5</v>
+      </c>
+      <c r="O15" s="4">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1086,35 +1127,39 @@
       <c r="G16">
         <v>5</v>
       </c>
-      <c r="H16" s="2">
-        <v>5</v>
-      </c>
-      <c r="I16" s="2">
-        <v>5</v>
-      </c>
-      <c r="J16" s="2">
-        <v>5</v>
-      </c>
-      <c r="K16" s="2">
-        <v>5</v>
-      </c>
-      <c r="L16" s="2">
-        <v>5</v>
-      </c>
-      <c r="M16" s="2">
-        <v>5</v>
-      </c>
-      <c r="N16" s="2">
-        <v>5</v>
-      </c>
-      <c r="O16" s="2">
-        <v>5</v>
-      </c>
-      <c r="P16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="4">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5</v>
+      </c>
+      <c r="J16" s="4">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5</v>
+      </c>
+      <c r="M16" s="4">
+        <v>5</v>
+      </c>
+      <c r="N16" s="4">
+        <v>5</v>
+      </c>
+      <c r="O16" s="4">
+        <v>5</v>
+      </c>
+      <c r="P16" s="5">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1124,26 +1169,39 @@
       <c r="C17" s="2">
         <v>5</v>
       </c>
-      <c r="H17" s="2">
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
         <v>5</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2">
-        <v>5</v>
-      </c>
-      <c r="L17" s="2">
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
         <v>5</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2">
-        <v>5</v>
-      </c>
-      <c r="O17" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="4">
+        <v>5</v>
+      </c>
+      <c r="O17" s="4">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1156,32 +1214,36 @@
       <c r="H18" s="4">
         <v>5</v>
       </c>
-      <c r="I18" s="2">
-        <v>5</v>
-      </c>
-      <c r="J18" s="2">
-        <v>5</v>
-      </c>
-      <c r="K18" s="2">
-        <v>5</v>
-      </c>
-      <c r="L18" s="2">
-        <v>5</v>
-      </c>
-      <c r="M18" s="2">
-        <v>5</v>
-      </c>
-      <c r="N18" s="2">
-        <v>5</v>
-      </c>
-      <c r="O18" s="2">
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>5</v>
+      </c>
+      <c r="M18" s="4">
+        <v>5</v>
+      </c>
+      <c r="N18" s="4">
+        <v>5</v>
+      </c>
+      <c r="O18" s="4">
         <v>5</v>
       </c>
       <c r="P18" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1191,31 +1253,35 @@
       <c r="C19" s="2">
         <v>5</v>
       </c>
-      <c r="H19" s="2">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="H19" s="4">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4">
         <v>5</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="2">
-        <v>5</v>
-      </c>
-      <c r="L19" s="2">
-        <v>5</v>
-      </c>
-      <c r="M19" s="2">
-        <v>5</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="K19" s="4">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4">
+        <v>5</v>
+      </c>
+      <c r="M19" s="4">
+        <v>5</v>
+      </c>
+      <c r="N19" s="4">
         <v>5</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1239,8 +1305,12 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1262,19 +1332,23 @@
       <c r="K21" s="4">
         <v>5</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="4">
         <v>5</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="4">
+        <v>5</v>
+      </c>
+      <c r="P21" s="5">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1288,16 +1362,16 @@
       <c r="I22" s="4">
         <v>5</v>
       </c>
-      <c r="J22" s="2">
-        <v>5</v>
-      </c>
-      <c r="K22" s="2">
-        <v>5</v>
-      </c>
-      <c r="L22" s="2">
-        <v>5</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="J22" s="4">
+        <v>5</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>5</v>
+      </c>
+      <c r="M22" s="4">
         <v>5</v>
       </c>
       <c r="N22" s="2"/>
@@ -1305,8 +1379,12 @@
       <c r="P22" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1317,35 +1395,39 @@
       <c r="G23">
         <v>5</v>
       </c>
-      <c r="H23" s="2">
-        <v>5</v>
-      </c>
-      <c r="I23" s="2">
-        <v>5</v>
-      </c>
-      <c r="J23" s="2">
-        <v>5</v>
-      </c>
-      <c r="K23" s="2">
-        <v>5</v>
-      </c>
-      <c r="L23" s="2">
-        <v>5</v>
-      </c>
-      <c r="M23" s="2">
-        <v>5</v>
-      </c>
-      <c r="N23" s="2">
-        <v>5</v>
-      </c>
-      <c r="O23" s="2">
+      <c r="H23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4">
+        <v>5</v>
+      </c>
+      <c r="M23" s="4">
+        <v>5</v>
+      </c>
+      <c r="N23" s="4">
+        <v>5</v>
+      </c>
+      <c r="O23" s="4">
         <v>5</v>
       </c>
       <c r="P23" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1365,20 +1447,24 @@
       <c r="K24" s="4">
         <v>5</v>
       </c>
-      <c r="L24" s="2">
-        <v>5</v>
-      </c>
-      <c r="M24" s="2">
-        <v>5</v>
-      </c>
-      <c r="N24" s="2">
-        <v>5</v>
-      </c>
-      <c r="O24" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="4">
+        <v>5</v>
+      </c>
+      <c r="M24" s="4">
+        <v>5</v>
+      </c>
+      <c r="N24" s="4">
+        <v>5</v>
+      </c>
+      <c r="O24" s="4">
+        <v>5</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1389,35 +1475,39 @@
       <c r="G25">
         <v>5</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="4">
         <v>5</v>
       </c>
       <c r="I25" s="4">
         <v>5</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="4">
         <v>5</v>
       </c>
       <c r="K25" s="4">
         <v>5</v>
       </c>
-      <c r="L25" s="2">
-        <v>5</v>
-      </c>
-      <c r="M25" s="2">
-        <v>5</v>
-      </c>
-      <c r="N25" s="2">
-        <v>5</v>
-      </c>
-      <c r="O25" s="2">
-        <v>5</v>
-      </c>
-      <c r="P25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="4">
+        <v>5</v>
+      </c>
+      <c r="M25" s="4">
+        <v>5</v>
+      </c>
+      <c r="N25" s="4">
+        <v>5</v>
+      </c>
+      <c r="O25" s="4">
+        <v>5</v>
+      </c>
+      <c r="P25" s="5">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1437,18 +1527,22 @@
       <c r="K26" s="4">
         <v>5</v>
       </c>
-      <c r="L26" s="2">
-        <v>5</v>
-      </c>
-      <c r="M26" s="2">
-        <v>5</v>
-      </c>
-      <c r="N26" s="2">
+      <c r="L26" s="4">
+        <v>5</v>
+      </c>
+      <c r="M26" s="4">
+        <v>5</v>
+      </c>
+      <c r="N26" s="4">
         <v>5</v>
       </c>
       <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1468,23 +1562,27 @@
       <c r="K27" s="4">
         <v>5</v>
       </c>
-      <c r="L27" s="2">
-        <v>5</v>
-      </c>
-      <c r="M27" s="2">
-        <v>5</v>
-      </c>
-      <c r="N27" s="2">
-        <v>5</v>
-      </c>
-      <c r="O27" s="2">
+      <c r="L27" s="4">
+        <v>5</v>
+      </c>
+      <c r="M27" s="4">
+        <v>5</v>
+      </c>
+      <c r="N27" s="4">
+        <v>5</v>
+      </c>
+      <c r="O27" s="4">
         <v>5</v>
       </c>
       <c r="P27" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1494,29 +1592,33 @@
       <c r="C28" s="2">
         <v>5</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="4">
         <v>5</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="2">
-        <v>5</v>
-      </c>
-      <c r="K28" s="2">
+      <c r="J28" s="4">
+        <v>5</v>
+      </c>
+      <c r="K28" s="4">
         <v>5</v>
       </c>
       <c r="L28" s="2"/>
-      <c r="M28" s="2">
-        <v>5</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="M28" s="4">
+        <v>5</v>
+      </c>
+      <c r="N28" s="4">
         <v>5</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1532,7 +1634,7 @@
   <mergeCells count="1">
     <mergeCell ref="C1:W1"/>
   </mergeCells>
-  <conditionalFormatting sqref="R5:R9 R11:R28">
+  <conditionalFormatting sqref="R5:R28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9654D7-D29E-44F0-880F-587496F71403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0E6F42-DD21-4C15-9410-7A3CC32B0F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,10 +571,10 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -783,11 +783,15 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
       <c r="H8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
       <c r="J8" s="4">
         <v>5</v>
       </c>
@@ -801,13 +805,15 @@
       <c r="N8" s="4">
         <v>5</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2">
+        <v>5</v>
+      </c>
       <c r="P8" s="6">
         <v>5</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1006,6 +1012,9 @@
         <v>8</v>
       </c>
       <c r="C13" s="2"/>
+      <c r="G13">
+        <v>5</v>
+      </c>
       <c r="H13" s="4">
         <v>5</v>
       </c>
@@ -1026,7 +1035,7 @@
       <c r="O13" s="2"/>
       <c r="R13">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1167,7 +1176,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -1198,7 +1207,7 @@
       </c>
       <c r="R17">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1259,7 +1268,9 @@
       <c r="I19" s="4">
         <v>5</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
       <c r="K19" s="4">
         <v>5</v>
       </c>
@@ -1272,13 +1283,15 @@
       <c r="N19" s="4">
         <v>5</v>
       </c>
-      <c r="O19" s="2"/>
+      <c r="O19" s="2">
+        <v>5</v>
+      </c>
       <c r="P19" s="6">
         <v>5</v>
       </c>
       <c r="R19">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-420\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0E6F42-DD21-4C15-9410-7A3CC32B0F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B609D6D9-7D52-42CC-8BFA-12996D5AE75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/3ПКС-420/3ПКС-420.xlsx
+++ b/3ПКС-420/3ПКС-420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\3ПКС-420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B609D6D9-7D52-42CC-8BFA-12996D5AE75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F97FB9-CF24-4438-B6AC-968FFEA9EEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -264,6 +264,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -574,7 +575,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -670,7 +671,12 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
       <c r="H5" s="4">
         <v>5</v>
       </c>
@@ -746,8 +752,11 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
-        <v>5</v>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>5</v>
@@ -783,13 +792,16 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
-        <v>5</v>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>5</v>
       </c>
       <c r="J8" s="4">
@@ -805,7 +817,7 @@
       <c r="N8" s="4">
         <v>5</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="4">
         <v>5</v>
       </c>
       <c r="P8" s="6">
@@ -823,8 +835,11 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
-        <v>5</v>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
       </c>
       <c r="H9" s="4">
         <v>5</v>
@@ -865,7 +880,9 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
       <c r="G10" s="5">
         <v>5</v>
       </c>
@@ -936,6 +953,9 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
       <c r="H11" s="4">
         <v>5</v>
       </c>
@@ -971,7 +991,12 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
       <c r="H12" s="4">
         <v>5</v>
       </c>
@@ -1011,8 +1036,10 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="G13">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <v>5</v>
       </c>
       <c r="H13" s="4">
@@ -1045,8 +1072,11 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2">
-        <v>5</v>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
       </c>
       <c r="H14" s="4">
         <v>5</v>
@@ -1083,8 +1113,10 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="G15">
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
         <v>5</v>
       </c>
       <c r="H15" s="4">
@@ -1123,17 +1155,19 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5</v>
+      </c>
+      <c r="G16" s="5">
         <v>5</v>
       </c>
       <c r="H16" s="4">
@@ -1175,17 +1209,20 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
       </c>
       <c r="H17" s="4">
         <v>5</v>
@@ -1207,7 +1244,7 @@
       </c>
       <c r="R17">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1217,8 +1254,11 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2">
-        <v>5</v>
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
       </c>
       <c r="H18" s="4">
         <v>5</v>
@@ -1259,8 +1299,11 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2">
-        <v>5</v>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
       </c>
       <c r="H19" s="4">
         <v>5</v>
@@ -1268,7 +1311,7 @@
       <c r="I19" s="4">
         <v>5</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="4">
         <v>5</v>
       </c>
       <c r="K19" s="4">
@@ -1283,7 +1326,7 @@
       <c r="N19" s="4">
         <v>5</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="4">
         <v>5</v>
       </c>
       <c r="P19" s="6">
@@ -1303,6 +1346,9 @@
       </c>
       <c r="C20" s="4">
         <v>5</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
       </c>
       <c r="H20" s="4">
         <v>5</v>
@@ -1333,6 +1379,9 @@
       <c r="C21" s="4">
         <v>5</v>
       </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
       <c r="H21" s="4">
         <v>5</v>
       </c>
@@ -1368,7 +1417,12 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
       <c r="H22" s="4">
         <v>5</v>
       </c>
@@ -1404,8 +1458,10 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="G23">
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
         <v>5</v>
       </c>
       <c r="H23" s="4">
@@ -1447,8 +1503,11 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2">
-        <v>5</v>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
       </c>
       <c r="H24" s="4">
         <v>5</v>
@@ -1484,8 +1543,10 @@
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="G25">
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
         <v>5</v>
       </c>
       <c r="H25" s="4">
@@ -1527,8 +1588,11 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2">
-        <v>5</v>
+      <c r="C26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
       </c>
       <c r="H26" s="4">
         <v>5</v>
@@ -1562,7 +1626,12 @@
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
       <c r="H27" s="4">
         <v>5</v>
       </c>
@@ -1602,8 +1671,11 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2">
-        <v>5</v>
+      <c r="C28" s="4">
+        <v>5</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
       </c>
       <c r="H28" s="4">
         <v>5</v>
